--- a/cornell_shots.xlsx
+++ b/cornell_shots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC441837-C274-0E40-9026-F58EE74568D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA34413-238B-DB41-BCAD-B8047332C7DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13560" yWindow="1340" windowWidth="13880" windowHeight="14180" xr2:uid="{AC1E0B3E-1B30-B948-ABC9-188344C1A5DC}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,8 +511,8 @@
         <v>43.125</v>
       </c>
       <c r="E2">
-        <f>(C2*12) + 150</f>
-        <v>282</v>
+        <f>(C2*12) + 165</f>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -542,8 +542,8 @@
         <v>24.375</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E46" si="1">(C3*12) + 150</f>
-        <v>228</v>
+        <f t="shared" ref="E3:E36" si="1">(C3*12) + 165</f>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -574,7 +574,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -729,7 +729,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -760,7 +760,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>

--- a/cornell_shots.xlsx
+++ b/cornell_shots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA34413-238B-DB41-BCAD-B8047332C7DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189752CC-F000-2344-AD3E-FC9A695F751E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13560" yWindow="1340" windowWidth="13880" windowHeight="14180" xr2:uid="{AC1E0B3E-1B30-B948-ABC9-188344C1A5DC}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>Defensive Midfield</t>
   </si>
   <si>
-    <t>#17 - B.Bayh</t>
+    <t>#17 - B. Bayh</t>
   </si>
   <si>
     <t>#47 - B. Evans</t>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B078861-BD03-3347-9263-3A4D9610AC3E}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
